--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AVACOM Project\AvacomModified\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="6075" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="6075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,12 +42,11 @@
     <sheet name="Sheet27" sheetId="30" r:id="rId28"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="228">
   <si>
     <t>URL</t>
   </si>
@@ -119,9 +123,6 @@
     <t>Mgmt@avantis.info</t>
   </si>
   <si>
-    <t>mgmt@bita.com</t>
-  </si>
-  <si>
     <t>auditor@abcd.com</t>
   </si>
   <si>
@@ -131,9 +132,6 @@
     <t>last Word</t>
   </si>
   <si>
-    <t>Shivrajapprover@gmail.com</t>
-  </si>
-  <si>
     <t>departmenthead@abcd.com</t>
   </si>
   <si>
@@ -354,12 +352,6 @@
   </si>
   <si>
     <t>PSK2&amp;r12vV8u</t>
-  </si>
-  <si>
-    <t>reviewer@entity.com</t>
-  </si>
-  <si>
-    <t>mgmt@entity.com</t>
   </si>
   <si>
     <t>https://login.teamleaseregtech.com/Login.aspx</t>
@@ -654,9 +646,6 @@
     <t>fhr@bitaconsulting.co.in</t>
   </si>
   <si>
-    <t>CertificateOwner</t>
-  </si>
-  <si>
     <t>CertificateOfficer</t>
   </si>
   <si>
@@ -723,9 +712,6 @@
     <t>Security1</t>
   </si>
   <si>
-    <t>snehal.patil@tlregtech.in</t>
-  </si>
-  <si>
     <t>kantak.bhagyesh@gmail.com</t>
   </si>
   <si>
@@ -738,25 +724,77 @@
     <t>sanket.more111@tlregtech.in</t>
   </si>
   <si>
-    <t>Auditor@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Mgmt@regtrack.com</t>
   </si>
   <si>
     <t xml:space="preserve"> deepali@tlregtech.com</t>
+  </si>
+  <si>
+    <t>ownerone@bharat.com</t>
+  </si>
+  <si>
+    <t>Description1</t>
+  </si>
+  <si>
+    <t>Liability </t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>ActionTaken</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Description updated</t>
+  </si>
+  <si>
+    <t>Description11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> officertwo@bharat.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mgmt@bharat.com</t>
+  </si>
+  <si>
+    <t>department@abcd.com</t>
+  </si>
+  <si>
+    <t>reviewer@bharat.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> snehal12.patil@tlregtech.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> auditor@regtrack.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> approver@regtrack.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1086,82 +1124,86 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1438,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1464,7 +1506,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1472,18 +1514,18 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" customHeight="1">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1491,10 +1533,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1513,10 +1555,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1551,7 +1593,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1559,7 +1601,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1575,7 +1617,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1596,10 +1638,10 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1609,7 +1651,12 @@
     </row>
     <row r="20" spans="1:2">
       <c r="B20" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1617,6 +1664,8 @@
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B19" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId4" display="performer@tlcg.com"/>
+    <hyperlink ref="B21" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
@@ -1627,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1642,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1650,21 +1699,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B3" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="deepali@tlregtech.in"/>
     <hyperlink ref="B1" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1697,7 +1747,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1744,7 +1794,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1757,12 +1807,12 @@
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="54" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1770,17 +1820,17 @@
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1831,10 +1881,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1847,66 +1897,66 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12">
         <v>7803988712</v>
@@ -1914,52 +1964,52 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="49" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="48" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="48" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="51" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1">
       <c r="A18" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1">
       <c r="A19" s="50" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1972,23 +2022,23 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="50" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B21" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="10" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2032,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2040,7 +2090,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2053,23 +2103,23 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>9561456772</v>
@@ -2077,110 +2127,110 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>7703988712</v>
@@ -2188,149 +2238,149 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B42" s="40">
         <v>45139</v>
@@ -2338,18 +2388,18 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B43" s="41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="41" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B44" s="41" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2445,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2411,7 +2461,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2419,7 +2469,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2435,7 +2485,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2456,7 +2506,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2464,7 +2514,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2472,7 +2522,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2488,7 +2538,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2509,18 +2559,18 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2558,7 +2608,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2566,15 +2616,15 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2589,10 +2639,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2614,11 +2664,11 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="57" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2626,8 +2676,43 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="45" t="s">
-        <v>188</v>
+      <c r="A4" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5228678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2646,7 +2731,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2660,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2668,7 +2753,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2693,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2708,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2716,7 +2801,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2729,17 +2814,17 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="45" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2749,17 +2834,17 @@
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" display="fhr@bitaconsulting.co.in"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B16" r:id="rId3"/>
     <hyperlink ref="B17" r:id="rId4"/>
@@ -2777,7 +2862,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2799,7 +2884,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2835,7 +2920,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2843,7 +2928,7 @@
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B1" r:id="rId2" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
     <hyperlink ref="B5" r:id="rId3" display="reviewer@avantis.info"/>
-    <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId4" display="snehal.patil@tlregtech.in"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2854,7 +2939,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2868,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2876,7 +2961,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2889,7 +2974,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" display="mgmt@entity.com"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B1" r:id="rId3"/>
   </hyperlinks>
@@ -2916,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2924,7 +3009,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2937,12 +3022,12 @@
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2972,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2980,7 +3065,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2993,10 +3078,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3030,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3038,7 +3123,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3051,124 +3136,124 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="21" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18">
       <c r="A5" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="19" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="19" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B12" s="23"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="19" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="28" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="30" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="27" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B20" s="31">
         <v>45264</v>
@@ -3176,16 +3261,16 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B21" s="16"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3218,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3226,7 +3311,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3264,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3272,7 +3357,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3318,7 +3403,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3355,59 +3440,59 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:4" ht="15.75" thickBot="1">
       <c r="A3" s="35" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:4" ht="15.75" thickBot="1">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="37" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3441,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3449,7 +3534,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3457,7 +3542,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3475,7 +3560,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3497,7 +3582,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3505,7 +3590,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3574,18 +3659,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="81.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3593,15 +3679,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3609,17 +3695,138 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="1" t="s">
-        <v>25</v>
+    <row r="4" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="4" customFormat="1">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" display="snehal.patil@tlregtech.in"/>
     <hyperlink ref="B1" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3630,7 +3837,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3652,7 +3859,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3660,35 +3867,35 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -3713,7 +3920,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3735,7 +3942,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3748,10 +3955,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3761,7 +3968,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" display="Approver@gmail.com"/>
     <hyperlink ref="B1" r:id="rId2" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
     <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
@@ -3774,7 +3981,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3796,7 +4003,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3809,28 +4016,28 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3840,7 +4047,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="16" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3884,7 +4091,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3892,15 +4099,15 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="6075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="6075" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,12 +41,12 @@
     <sheet name="Sheet29" sheetId="29" r:id="rId27"/>
     <sheet name="Sheet27" sheetId="30" r:id="rId28"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="228">
   <si>
     <t>URL</t>
   </si>
@@ -1482,7 +1482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3980,8 +3980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AVACOM Project\AvacomModified\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Regtrack Merge Project\Regtrack-Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="6075" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="6075" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -724,9 +724,6 @@
     <t>sanket.more111@tlregtech.in</t>
   </si>
   <si>
-    <t xml:space="preserve"> Mgmt@regtrack.com</t>
-  </si>
-  <si>
     <t xml:space="preserve"> deepali@tlregtech.com</t>
   </si>
   <si>
@@ -776,6 +773,9 @@
   </si>
   <si>
     <t xml:space="preserve"> approver@regtrack.com</t>
+  </si>
+  <si>
+    <t>bhagyesh@tlregtech.com</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1506,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1699,7 +1699,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2664,7 +2664,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2680,12 +2680,12 @@
         <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B5" s="1">
         <v>5228678</v>
@@ -2693,26 +2693,26 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" t="s">
         <v>217</v>
-      </c>
-      <c r="B7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" t="s">
         <v>219</v>
-      </c>
-      <c r="B8" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2753,7 +2753,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2801,7 +2801,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2884,7 +2884,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2961,7 +2961,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3559,8 +3559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3582,7 +3582,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3603,7 +3603,7 @@
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
     <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B2" r:id="rId3" display="cfo@bitaconsulting.co.in"/>
+    <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3684,7 +3684,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3859,7 +3859,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3942,7 +3942,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3980,7 +3980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4003,7 +4003,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="6075" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="6080" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,12 +41,12 @@
     <sheet name="Sheet29" sheetId="29" r:id="rId27"/>
     <sheet name="Sheet27" sheetId="30" r:id="rId28"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="229">
   <si>
     <t>URL</t>
   </si>
@@ -760,9 +760,6 @@
     <t xml:space="preserve"> mgmt@bharat.com</t>
   </si>
   <si>
-    <t>department@abcd.com</t>
-  </si>
-  <si>
     <t>reviewer@bharat.com</t>
   </si>
   <si>
@@ -776,6 +773,12 @@
   </si>
   <si>
     <t>bhagyesh@tlregtech.com</t>
+  </si>
+  <si>
+    <t>department@regtrack.com</t>
+  </si>
+  <si>
+    <t>approver@regtrack.com</t>
   </si>
 </sst>
 </file>
@@ -1486,11 +1489,11 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1506,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1680,10 +1683,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="75.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1728,10 +1731,10 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1775,10 +1778,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1858,14 +1861,14 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1996,7 +1999,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1">
+    <row r="18" spans="1:2" ht="15" thickBot="1">
       <c r="A18" t="s">
         <v>195</v>
       </c>
@@ -2004,7 +2007,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1">
+    <row r="19" spans="1:2" ht="15" thickBot="1">
       <c r="A19" s="50" t="s">
         <v>196</v>
       </c>
@@ -2071,10 +2074,10 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2426,10 +2429,10 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2590,9 +2593,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2645,10 +2648,10 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2734,10 +2737,10 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2753,7 +2756,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2782,10 +2785,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2865,10 +2868,10 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2884,7 +2887,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2942,10 +2945,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2990,10 +2993,10 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3046,10 +3049,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3103,11 +3106,11 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3139,7 +3142,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18">
+    <row r="5" spans="1:2" ht="17.5">
       <c r="A5" s="8" t="s">
         <v>109</v>
       </c>
@@ -3292,7 +3295,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
@@ -3338,7 +3341,7 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
@@ -3385,9 +3388,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3431,10 +3434,10 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3446,8 +3449,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+    <row r="2" spans="1:4" ht="15" thickBot="1"/>
+    <row r="3" spans="1:4" ht="15" thickBot="1">
       <c r="A3" s="35" t="s">
         <v>139</v>
       </c>
@@ -3470,8 +3473,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+    <row r="5" spans="1:4" ht="15" thickBot="1"/>
+    <row r="6" spans="1:4" ht="15" thickBot="1">
       <c r="A6" t="s">
         <v>139</v>
       </c>
@@ -3515,10 +3518,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="75.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3559,14 +3562,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="74.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="74.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3582,7 +3585,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3617,10 +3620,10 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3665,10 +3668,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3684,7 +3687,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3840,10 +3843,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3859,7 +3862,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3917,16 +3920,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3942,7 +3945,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3966,9 +3969,14 @@
         <v>127153</v>
       </c>
     </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Approver@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B1" r:id="rId2" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
     <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
@@ -3984,10 +3992,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4003,7 +4011,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4072,10 +4080,10 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="6075" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="6075" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,12 +41,12 @@
     <sheet name="Sheet29" sheetId="29" r:id="rId27"/>
     <sheet name="Sheet27" sheetId="30" r:id="rId28"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="229">
   <si>
     <t>URL</t>
   </si>
@@ -724,9 +724,6 @@
     <t>sanket.more111@tlregtech.in</t>
   </si>
   <si>
-    <t xml:space="preserve"> deepali@tlregtech.com</t>
-  </si>
-  <si>
     <t>ownerone@bharat.com</t>
   </si>
   <si>
@@ -776,6 +773,12 @@
   </si>
   <si>
     <t>bhagyesh@tlregtech.com</t>
+  </si>
+  <si>
+    <t>admin#123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> snehal.patil@tlregtech.in</t>
   </si>
 </sst>
 </file>
@@ -1483,7 +1486,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1506,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1676,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1699,7 +1702,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1707,14 +1710,14 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="deepali@tlregtech.in"/>
+    <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B1" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId3" display="admin@111"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2664,7 +2667,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2680,12 +2683,12 @@
         <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B5" s="1">
         <v>5228678</v>
@@ -2693,26 +2696,26 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" t="s">
         <v>216</v>
-      </c>
-      <c r="B7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" t="s">
         <v>218</v>
-      </c>
-      <c r="B8" t="s">
-        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2753,7 +2756,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2801,7 +2804,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2862,7 +2865,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2884,7 +2887,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2892,7 +2895,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2925,7 +2928,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" display="admin@123"/>
     <hyperlink ref="B1" r:id="rId2" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
     <hyperlink ref="B5" r:id="rId3" display="reviewer@avantis.info"/>
     <hyperlink ref="B2" r:id="rId4" display="snehal.patil@tlregtech.in"/>
@@ -2961,7 +2964,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3559,8 +3562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3582,7 +3585,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3590,7 +3593,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>193</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3662,7 +3665,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3684,7 +3687,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3692,7 +3695,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1">
@@ -3826,7 +3829,7 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="snehal.patil@tlregtech.in"/>
     <hyperlink ref="B1" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId3" display="admin@123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3859,7 +3862,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3942,7 +3945,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4003,7 +4006,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4069,7 +4072,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4112,10 +4115,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" tooltip="mailto:Mayuri@1234"/>
-    <hyperlink ref="B1" r:id="rId2" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4" tooltip="mailto:deepali@tlregtech.in"/>
+    <hyperlink ref="B1" r:id="rId1" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3" tooltip="mailto:Mayuri@1234"/>
+    <hyperlink ref="B2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="6075" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16040" windowHeight="6080" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -757,9 +757,6 @@
     <t xml:space="preserve"> mgmt@bharat.com</t>
   </si>
   <si>
-    <t>department@abcd.com</t>
-  </si>
-  <si>
     <t>reviewer@bharat.com</t>
   </si>
   <si>
@@ -779,6 +776,9 @@
   </si>
   <si>
     <t xml:space="preserve"> snehal.patil@tlregtech.in</t>
+  </si>
+  <si>
+    <t>department@regtrack.com</t>
   </si>
 </sst>
 </file>
@@ -1489,11 +1489,11 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1509,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1679,14 +1679,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="75.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -1731,10 +1731,10 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1778,10 +1778,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1864,11 +1864,11 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1999,7 +1999,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1">
+    <row r="18" spans="1:2" ht="15" thickBot="1">
       <c r="A18" t="s">
         <v>195</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1">
+    <row r="19" spans="1:2" ht="15" thickBot="1">
       <c r="A19" s="50" t="s">
         <v>196</v>
       </c>
@@ -2074,10 +2074,10 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2429,10 +2429,10 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2593,9 +2593,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2648,10 +2648,10 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2737,10 +2737,10 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2756,7 +2756,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2785,10 +2785,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2868,10 +2868,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2887,7 +2887,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2895,7 +2895,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2945,10 +2945,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2993,10 +2993,10 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3049,10 +3049,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3106,11 +3106,11 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3142,7 +3142,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18">
+    <row r="5" spans="1:2" ht="17.5">
       <c r="A5" s="8" t="s">
         <v>109</v>
       </c>
@@ -3295,7 +3295,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
@@ -3341,7 +3341,7 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
@@ -3388,9 +3388,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3434,10 +3434,10 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3449,8 +3449,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+    <row r="2" spans="1:4" ht="15" thickBot="1"/>
+    <row r="3" spans="1:4" ht="15" thickBot="1">
       <c r="A3" s="35" t="s">
         <v>139</v>
       </c>
@@ -3473,8 +3473,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+    <row r="5" spans="1:4" ht="15" thickBot="1"/>
+    <row r="6" spans="1:4" ht="15" thickBot="1">
       <c r="A6" t="s">
         <v>139</v>
       </c>
@@ -3518,10 +3518,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="75.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3566,10 +3566,10 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="74.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="74.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3585,7 +3585,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3620,10 +3620,10 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3668,10 +3668,10 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3687,7 +3687,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3695,7 +3695,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1">
@@ -3843,10 +3843,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3862,7 +3862,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3926,10 +3926,10 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3945,7 +3945,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3983,14 +3983,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4006,7 +4006,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4075,10 +4075,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -3984,7 +3984,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Regtrack Merge Project\Regtrack-Project\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16040" windowHeight="6080" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="6075" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,6 +37,7 @@
     <sheet name="Sheet27" sheetId="30" r:id="rId28"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="B1:J18"/>
 </workbook>
 </file>
 
@@ -769,9 +765,6 @@
     <t xml:space="preserve"> approver@regtrack.com</t>
   </si>
   <si>
-    <t>bhagyesh@tlregtech.com</t>
-  </si>
-  <si>
     <t>admin#123</t>
   </si>
   <si>
@@ -779,6 +772,9 @@
   </si>
   <si>
     <t>department@regtrack.com</t>
+  </si>
+  <si>
+    <t>bhagyesh123@tlregtech.com</t>
   </si>
 </sst>
 </file>
@@ -1489,11 +1485,11 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
-    <col min="2" max="2" width="81.54296875" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1683,10 +1679,10 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" customWidth="1"/>
-    <col min="2" max="2" width="75.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1710,7 +1706,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -1731,10 +1727,10 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" customWidth="1"/>
-    <col min="2" max="2" width="81.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="81.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1778,10 +1774,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" customWidth="1"/>
-    <col min="2" max="2" width="81.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="81.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1864,11 +1860,11 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.54296875" customWidth="1"/>
-    <col min="3" max="3" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1999,7 +1995,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1">
+    <row r="18" spans="1:2" ht="15.75" thickBot="1">
       <c r="A18" t="s">
         <v>195</v>
       </c>
@@ -2007,7 +2003,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1">
+    <row r="19" spans="1:2" ht="15.75" thickBot="1">
       <c r="A19" s="50" t="s">
         <v>196</v>
       </c>
@@ -2074,10 +2070,10 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2429,10 +2425,10 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2593,9 +2589,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="75.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2648,10 +2644,10 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2737,10 +2733,10 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2785,10 +2781,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2868,10 +2864,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" customWidth="1"/>
-    <col min="2" max="2" width="81.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="81.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2887,7 +2883,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2895,7 +2891,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2945,10 +2941,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2993,10 +2989,10 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3049,10 +3045,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3106,11 +3102,11 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3142,7 +3138,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.5">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="8" t="s">
         <v>109</v>
       </c>
@@ -3295,7 +3291,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
@@ -3341,7 +3337,7 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
@@ -3388,9 +3384,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="75.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3434,10 +3430,10 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3449,8 +3445,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1"/>
-    <row r="3" spans="1:4" ht="15" thickBot="1">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1">
       <c r="A3" s="35" t="s">
         <v>139</v>
       </c>
@@ -3473,8 +3469,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1"/>
-    <row r="6" spans="1:4" ht="15" thickBot="1">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1">
       <c r="A6" t="s">
         <v>139</v>
       </c>
@@ -3518,10 +3514,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="75.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3562,14 +3558,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" customWidth="1"/>
-    <col min="2" max="2" width="74.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="74.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3585,7 +3581,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3620,10 +3616,10 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" customWidth="1"/>
-    <col min="2" max="2" width="81.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="81.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3668,10 +3664,10 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" customWidth="1"/>
-    <col min="2" max="2" width="81.54296875" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="81.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3687,7 +3683,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3695,7 +3691,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1">
@@ -3843,10 +3839,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="81.54296875" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="81.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3926,10 +3922,10 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
-    <col min="2" max="2" width="81.54296875" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="81.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3983,14 +3979,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
-    <col min="2" max="2" width="81.54296875" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="81.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4006,7 +4002,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4075,10 +4071,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" customWidth="1"/>
-    <col min="2" max="2" width="81.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="81.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16040" windowHeight="6080" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16040" windowHeight="6080" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -763,12 +763,6 @@
     <t xml:space="preserve"> snehal12.patil@tlregtech.in</t>
   </si>
   <si>
-    <t xml:space="preserve"> auditor@regtrack.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> approver@regtrack.com</t>
-  </si>
-  <si>
     <t>bhagyesh@tlregtech.com</t>
   </si>
   <si>
@@ -779,6 +773,12 @@
   </si>
   <si>
     <t>department@regtrack.com</t>
+  </si>
+  <si>
+    <t>auditor@regtrack.com</t>
+  </si>
+  <si>
+    <t>approver@regtrack.com</t>
   </si>
 </sst>
 </file>
@@ -1710,7 +1710,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -1861,7 +1861,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -2887,7 +2887,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2895,7 +2895,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3585,7 +3585,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3617,7 +3617,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -3687,7 +3687,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3695,7 +3695,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1">
@@ -3840,7 +3840,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -3862,7 +3862,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3870,7 +3870,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>193</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3912,9 +3912,10 @@
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B6" r:id="rId3"/>
     <hyperlink ref="B13" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -3922,8 +3923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -3945,7 +3946,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3971,7 +3972,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Approver@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B1" r:id="rId2" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
     <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
@@ -3983,7 +3984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4006,7 +4007,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16040" windowHeight="6080" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16040" windowHeight="6080" firstSheet="12" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="231">
   <si>
     <t>URL</t>
   </si>
@@ -779,6 +779,12 @@
   </si>
   <si>
     <t>approver@regtrack.com</t>
+  </si>
+  <si>
+    <t>DepartmentReassignmentFile</t>
+  </si>
+  <si>
+    <t>E:\Ethics Committee Details.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1858,20 +1864,21 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.453125" customWidth="1"/>
     <col min="2" max="2" width="81.54296875" customWidth="1"/>
     <col min="3" max="3" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1879,18 +1886,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1898,13 +1908,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
         <v>121</v>
       </c>
@@ -1912,7 +1922,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -1920,12 +1930,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -1933,7 +1943,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
         <v>57</v>
       </c>
@@ -1941,7 +1951,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
         <v>58</v>
       </c>
@@ -1949,7 +1959,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
         <v>59</v>
       </c>
@@ -1957,7 +1967,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
         <v>60</v>
       </c>
@@ -1965,7 +1975,7 @@
         <v>7803988712</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
         <v>137</v>
       </c>
@@ -1973,12 +1983,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" s="49" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="48" t="s">
         <v>191</v>
       </c>
@@ -1986,7 +1996,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" s="48" t="s">
         <v>192</v>
       </c>
@@ -2052,17 +2062,27 @@
         <v>22</v>
       </c>
     </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" t="s">
+        <v>230</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B1" r:id="rId3"/>
-    <hyperlink ref="B13" r:id="rId4" display="rutug@gmail.com"/>
-    <hyperlink ref="B9" r:id="rId5" display="rutu@gmail.com"/>
-    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId2"/>
+    <hyperlink ref="B13" r:id="rId3" display="rutug@gmail.com"/>
+    <hyperlink ref="B9" r:id="rId4" display="rutu@gmail.com"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="C2" r:id="rId6"/>
+    <hyperlink ref="D2" r:id="rId7"/>
+    <hyperlink ref="B2" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -2070,7 +2090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -2781,7 +2801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3562,8 +3582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -3617,7 +3637,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -3923,7 +3943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="6075" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="6075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <sheet name="Sheet27" sheetId="30" r:id="rId28"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="B1:J18"/>
+  <oleSize ref="A1:H18"/>
 </workbook>
 </file>
 
@@ -1679,7 +1679,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2863,8 +2863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3561,8 +3561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Regtrack Merge Project\Regtrack-Project\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="6075" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16040" windowHeight="6080" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,12 +42,11 @@
     <sheet name="Sheet27" sheetId="30" r:id="rId28"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="B1:J18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="231">
   <si>
     <t>URL</t>
   </si>
@@ -759,9 +763,6 @@
     <t xml:space="preserve"> snehal12.patil@tlregtech.in</t>
   </si>
   <si>
-    <t xml:space="preserve"> auditor@regtrack.com</t>
-  </si>
-  <si>
     <t xml:space="preserve"> approver@regtrack.com</t>
   </si>
   <si>
@@ -778,6 +779,12 @@
   </si>
   <si>
     <t xml:space="preserve"> deepali345@tlregtech.in</t>
+  </si>
+  <si>
+    <t>cfo@bitaconsulting.co.in</t>
+  </si>
+  <si>
+    <t>auditor@regtrack.com</t>
   </si>
 </sst>
 </file>
@@ -1488,11 +1495,11 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1682,10 +1689,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="75.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1701,7 +1708,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1709,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -1730,10 +1737,10 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1774,13 +1781,13 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1796,7 +1803,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1828,6 +1835,11 @@
     <row r="9" spans="1:2">
       <c r="B9" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1849,9 +1861,10 @@
     <hyperlink ref="B5" r:id="rId5"/>
     <hyperlink ref="B2" r:id="rId6"/>
     <hyperlink ref="B3" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1863,11 +1876,11 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1998,7 +2011,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1">
+    <row r="18" spans="1:2" ht="15" thickBot="1">
       <c r="A18" t="s">
         <v>195</v>
       </c>
@@ -2006,7 +2019,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1">
+    <row r="19" spans="1:2" ht="15" thickBot="1">
       <c r="A19" s="50" t="s">
         <v>196</v>
       </c>
@@ -2069,14 +2082,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2428,10 +2441,10 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2592,9 +2605,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2647,10 +2660,10 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2736,10 +2749,10 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2784,10 +2797,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2867,10 +2880,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2886,7 +2899,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2944,10 +2957,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2992,10 +3005,10 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3048,10 +3061,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3105,11 +3118,11 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3141,7 +3154,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18">
+    <row r="5" spans="1:2" ht="17.5">
       <c r="A5" s="8" t="s">
         <v>109</v>
       </c>
@@ -3294,7 +3307,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
@@ -3340,7 +3353,7 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
@@ -3387,9 +3400,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3433,10 +3446,10 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3448,8 +3461,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+    <row r="2" spans="1:4" ht="15" thickBot="1"/>
+    <row r="3" spans="1:4" ht="15" thickBot="1">
       <c r="A3" s="35" t="s">
         <v>139</v>
       </c>
@@ -3472,8 +3485,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+    <row r="5" spans="1:4" ht="15" thickBot="1"/>
+    <row r="6" spans="1:4" ht="15" thickBot="1">
       <c r="A6" t="s">
         <v>139</v>
       </c>
@@ -3511,16 +3524,16 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="75.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3547,11 +3560,23 @@
         <v>193</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3561,14 +3586,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="74.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="74.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3584,7 +3609,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3619,10 +3644,10 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3667,10 +3692,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3686,7 +3711,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3839,13 +3864,13 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3861,7 +3886,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3869,7 +3894,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>193</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3911,9 +3936,10 @@
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B6" r:id="rId3"/>
     <hyperlink ref="B13" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -3921,14 +3947,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3944,7 +3970,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3986,10 +4012,10 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4005,7 +4031,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4074,10 +4100,10 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16040" windowHeight="6080" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16040" windowHeight="6080" firstSheet="19" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="231">
   <si>
     <t>URL</t>
   </si>
@@ -3524,10 +3524,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3570,13 +3570,18 @@
         <v>194</v>
       </c>
     </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>194</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B7" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3947,7 +3952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16040" windowHeight="6080" firstSheet="19" activeTab="27"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16040" windowHeight="6080" firstSheet="22" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,13 +40,16 @@
     <sheet name="Sheet26" sheetId="28" r:id="rId26"/>
     <sheet name="Sheet29" sheetId="29" r:id="rId27"/>
     <sheet name="Sheet27" sheetId="30" r:id="rId28"/>
+    <sheet name="Sheet28" sheetId="31" r:id="rId29"/>
+    <sheet name="Sheet30" sheetId="32" r:id="rId30"/>
+    <sheet name="Sheet31" sheetId="33" r:id="rId31"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="238">
   <si>
     <t>URL</t>
   </si>
@@ -766,9 +769,6 @@
     <t xml:space="preserve"> approver@regtrack.com</t>
   </si>
   <si>
-    <t>admin#123</t>
-  </si>
-  <si>
     <t>department@regtrack.com</t>
   </si>
   <si>
@@ -785,6 +785,31 @@
   </si>
   <si>
     <t>auditor@regtrack.com</t>
+  </si>
+  <si>
+    <t>performer.tlcg@gmail.com</t>
+  </si>
+  <si>
+    <t>https://demo.teamleaseregtech.com/Login.aspx</t>
+  </si>
+  <si>
+    <t>reviewer.tlcg@gmail.com</t>
+  </si>
+  <si>
+    <t>https://demo.teamleaseregtech.com/</t>
+  </si>
+  <si>
+    <t>approver.tlcg@gmail.com</t>
+  </si>
+  <si>
+    <t>nbfcauditor@tlcg.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+admin@123</t>
+  </si>
+  <si>
+    <t>kaustubh@tlregtech.com</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1162,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1212,6 +1237,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1492,7 +1523,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1683,10 +1714,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -1695,35 +1726,37 @@
     <col min="2" max="2" width="75.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>224</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="deepali@tlregtech.in"/>
+    <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B1" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3" display="admin@111"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1803,7 +1836,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1873,7 +1906,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -2746,7 +2779,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2899,7 +2932,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3443,7 +3476,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3526,8 +3559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3562,7 +3595,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3582,6 +3615,53 @@
     <hyperlink ref="B7" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
     <hyperlink ref="B2" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="42.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3614,7 +3694,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3638,6 +3718,110 @@
     <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="51.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B7:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="19.08984375" customWidth="1"/>
+    <col min="2" max="2" width="34.7265625" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="29">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="59"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3" display="admin@111"/>
+    <hyperlink ref="C2" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3694,13 +3878,14 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="21.81640625" customWidth="1"/>
     <col min="2" max="2" width="81.54296875" customWidth="1"/>
+    <col min="3" max="3" width="28.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3708,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3716,7 +3901,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
+      </c>
+      <c r="C2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3856,7 +4044,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="snehal.patil@tlregtech.in"/>
+    <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B1" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
@@ -3891,7 +4079,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4036,7 +4224,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4102,7 +4290,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16040" windowHeight="6080" firstSheet="22" activeTab="30"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16040" windowHeight="6080" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="35" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="240">
   <si>
     <t>URL</t>
   </si>
@@ -772,9 +772,6 @@
     <t>department@regtrack.com</t>
   </si>
   <si>
-    <t>bhagyesh123@tlregtech.com</t>
-  </si>
-  <si>
     <t xml:space="preserve"> snehal4343.patil@tlregtech.in</t>
   </si>
   <si>
@@ -810,13 +807,22 @@
   </si>
   <si>
     <t>kaustubh@tlregtech.com</t>
+  </si>
+  <si>
+    <t>admin#111</t>
+  </si>
+  <si>
+    <t>snehal10.patil@tlregtech.in</t>
+  </si>
+  <si>
+    <t>https://login.teamleaseregtech.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="42">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1000,14 +1006,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF202124"/>
       <name val="Roboto"/>
@@ -1162,48 +1160,47 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1218,24 +1215,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1542,7 +1539,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1623,8 +1620,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="4" customFormat="1">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:3" s="3" customFormat="1">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1731,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1739,10 +1736,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1836,14 +1833,14 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="53" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1853,7 +1850,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="53" t="s">
         <v>193</v>
       </c>
     </row>
@@ -1881,7 +1878,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1931,7 +1928,7 @@
       <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1944,16 +1941,16 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>171</v>
       </c>
     </row>
@@ -1966,7 +1963,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1979,31 +1976,31 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="42" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="41" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B12">
@@ -2011,20 +2008,20 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="48" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="47" t="s">
         <v>191</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2032,15 +2029,15 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="47" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="50" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2048,28 +2045,28 @@
       <c r="A18" t="s">
         <v>195</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="52" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" thickBot="1">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="51" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="52" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="49" t="s">
         <v>200</v>
       </c>
       <c r="B21" t="s">
@@ -2077,7 +2074,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2090,7 +2087,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="55" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -2126,7 +2123,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2134,7 +2131,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2142,7 +2139,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2174,7 +2171,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2182,36 +2179,36 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2219,7 +2216,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2227,20 +2224,20 @@
       <c r="A14" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="45" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2253,31 +2250,31 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B21">
@@ -2285,107 +2282,107 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="37" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="38" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="38" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="54" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="46" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B36" t="s">
@@ -2393,7 +2390,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2422,31 +2419,31 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B42" s="40">
+      <c r="B42" s="39">
         <v>45139</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="40" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="40" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2553,7 +2550,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2668,10 +2665,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2716,7 +2713,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="56" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2724,7 +2721,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="57" t="s">
         <v>80</v>
       </c>
       <c r="B4" t="s">
@@ -2861,7 +2858,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2910,7 +2907,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -2932,7 +2929,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3101,7 +3098,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3109,7 +3106,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3117,7 +3114,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3125,7 +3122,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>106</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3159,7 +3156,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3167,7 +3164,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3175,7 +3172,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3183,95 +3180,95 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.5">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="22"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="27" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3279,15 +3276,15 @@
       <c r="A17" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="43" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3295,29 +3292,29 @@
       <c r="A19" t="s">
         <v>131</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="30">
         <v>45264</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B21" s="16"/>
+      <c r="B21" s="15"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3393,7 +3390,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -3401,7 +3398,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3409,7 +3406,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3496,16 +3493,16 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1"/>
     <row r="3" spans="1:4" ht="15" thickBot="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>139</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -3523,23 +3520,23 @@
       <c r="A6" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3595,7 +3592,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3638,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3646,7 +3643,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3669,23 +3666,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" customWidth="1"/>
-    <col min="2" max="2" width="74.453125" customWidth="1"/>
+    <col min="2" max="2" width="69.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3694,7 +3690,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3702,22 +3698,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="1"/>
+        <v>237</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId1" display="admin@123"/>
+    <hyperlink ref="B1" r:id="rId2" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
     <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3740,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3748,7 +3738,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3773,7 +3763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
@@ -3789,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3797,7 +3787,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>209</v>
@@ -3807,12 +3797,12 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>236</v>
+      <c r="B3" s="59" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="59"/>
+      <c r="B9" s="58"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3830,7 +3820,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -3878,7 +3868,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -3893,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3901,10 +3891,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3981,8 +3971,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="4" customFormat="1">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:3" s="3" customFormat="1">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4057,7 +4047,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4071,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4079,7 +4069,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4109,7 +4099,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4119,7 +4109,7 @@
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <v>113009</v>
       </c>
     </row>
@@ -4141,7 +4131,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4155,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4183,14 +4173,14 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>127153</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="Approver@gmail.com"/>
-    <hyperlink ref="B1" r:id="rId2" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
+    <hyperlink ref="B1" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4201,8 +4191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4216,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4262,12 +4252,12 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>110124</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>209</v>
       </c>
     </row>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16040" windowHeight="6080" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16040" windowHeight="6080" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="241">
   <si>
     <t>URL</t>
   </si>
@@ -816,6 +816,9 @@
   </si>
   <si>
     <t>https://login.teamleaseregtech.com/</t>
+  </si>
+  <si>
+    <t>avantis@123</t>
   </si>
 </sst>
 </file>
@@ -4046,8 +4049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4077,7 +4080,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4191,7 +4194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16040" windowHeight="6080" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16040" windowHeight="6080" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,11 +45,12 @@
     <sheet name="Sheet31" sheetId="33" r:id="rId31"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="239">
   <si>
     <t>URL</t>
   </si>
@@ -766,12 +767,6 @@
     <t xml:space="preserve"> snehal12.patil@tlregtech.in</t>
   </si>
   <si>
-    <t xml:space="preserve"> approver@regtrack.com</t>
-  </si>
-  <si>
-    <t>department@regtrack.com</t>
-  </si>
-  <si>
     <t xml:space="preserve"> snehal4343.patil@tlregtech.in</t>
   </si>
   <si>
@@ -818,7 +813,7 @@
     <t>https://login.teamleaseregtech.com/</t>
   </si>
   <si>
-    <t>avantis@123</t>
+    <t>bhagyesh123@tlregtech.com</t>
   </si>
 </sst>
 </file>
@@ -1731,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1739,10 +1734,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1836,7 +1831,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2932,7 +2927,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3595,7 +3590,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3638,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3646,7 +3641,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3693,7 +3688,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3701,7 +3696,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3733,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3741,7 +3736,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3782,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3790,7 +3785,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>209</v>
@@ -3801,7 +3796,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3871,7 +3866,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -3886,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3894,10 +3889,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4049,7 +4044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -4064,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4072,7 +4067,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4080,7 +4075,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>240</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4133,8 +4128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4148,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4156,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>223</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4182,7 +4177,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Approver@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B1" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
@@ -4195,7 +4190,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4209,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4217,7 +4212,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Regtrack Merge Project\Regtrack-Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Regtrack-Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16040" windowHeight="6080" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="5730" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="238">
   <si>
     <t>URL</t>
   </si>
@@ -766,12 +766,6 @@
     <t xml:space="preserve"> snehal12.patil@tlregtech.in</t>
   </si>
   <si>
-    <t xml:space="preserve"> approver@regtrack.com</t>
-  </si>
-  <si>
-    <t>department@regtrack.com</t>
-  </si>
-  <si>
     <t xml:space="preserve"> snehal4343.patil@tlregtech.in</t>
   </si>
   <si>
@@ -782,15 +776,6 @@
   </si>
   <si>
     <t>auditor@regtrack.com</t>
-  </si>
-  <si>
-    <t>performer.tlcg@gmail.com</t>
-  </si>
-  <si>
-    <t>https://demo.teamleaseregtech.com/Login.aspx</t>
-  </si>
-  <si>
-    <t>reviewer.tlcg@gmail.com</t>
   </si>
   <si>
     <t>https://demo.teamleaseregtech.com/</t>
@@ -809,23 +794,29 @@
     <t>kaustubh@tlregtech.com</t>
   </si>
   <si>
-    <t>admin#111</t>
-  </si>
-  <si>
-    <t>snehal10.patil@tlregtech.in</t>
-  </si>
-  <si>
     <t>https://login.teamleaseregtech.com/</t>
   </si>
   <si>
-    <t>avantis@123</t>
+    <t>deepali23@tlregtech.in</t>
+  </si>
+  <si>
+    <t>mayurigaikwad0307@gmail.com</t>
+  </si>
+  <si>
+    <t>admin#123</t>
+  </si>
+  <si>
+    <t>snehal.patil@tlregtech.in</t>
+  </si>
+  <si>
+    <t>deepalidev1973@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="41">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1106,6 +1097,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF202124"/>
+      <name val="Google Sans"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Google Sans"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1163,7 +1164,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1244,6 +1245,8 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1523,7 +1526,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1703,9 +1706,9 @@
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B19" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4" display="performer@tlcg.com"/>
-    <hyperlink ref="B21" r:id="rId5"/>
+    <hyperlink ref="B21" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId5" display="performer@tlcg.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
@@ -1717,7 +1720,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -1731,18 +1734,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>231</v>
+      <c r="B2" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1756,9 +1759,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B1" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1836,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2910,7 +2914,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -2932,7 +2936,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3595,7 +3599,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3638,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3646,7 +3650,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3671,13 +3675,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="69.08984375" customWidth="1"/>
+    <col min="2" max="2" width="69.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3693,24 +3697,23 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>237</v>
+      <c r="B3" s="61" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="admin@123"/>
-    <hyperlink ref="B1" r:id="rId2" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
-    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="B1" r:id="rId1" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3733,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3741,7 +3744,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3772,7 +3775,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
     <col min="2" max="2" width="34.7265625" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
@@ -3782,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3790,7 +3793,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>209</v>
@@ -3801,7 +3804,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3871,7 +3874,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -3886,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3894,10 +3897,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3905,6 +3908,9 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4037,11 +4043,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B1" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId1" display="admin@123"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -4049,8 +4056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4064,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4072,15 +4079,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>240</v>
+      <c r="B3" s="60" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4119,13 +4126,12 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B6" r:id="rId3"/>
-    <hyperlink ref="B13" r:id="rId4"/>
-    <hyperlink ref="B2" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B13" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -4134,7 +4140,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4148,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4156,15 +4162,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="B3" s="60" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4182,11 +4188,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Approver@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B1" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4195,7 +4201,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4209,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4217,7 +4223,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4283,7 +4289,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16040" windowHeight="6080" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16040" windowHeight="6080" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,12 +45,11 @@
     <sheet name="Sheet31" sheetId="33" r:id="rId31"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="241">
   <si>
     <t>URL</t>
   </si>
@@ -804,9 +803,6 @@
     <t>kaustubh@tlregtech.com</t>
   </si>
   <si>
-    <t>admin#111</t>
-  </si>
-  <si>
     <t>snehal10.patil@tlregtech.in</t>
   </si>
   <si>
@@ -814,6 +810,15 @@
   </si>
   <si>
     <t>bhagyesh123@tlregtech.com</t>
+  </si>
+  <si>
+    <t>approver1@avantis.co.in</t>
+  </si>
+  <si>
+    <t>deepalidev1973@gmail.com</t>
+  </si>
+  <si>
+    <t>Team@123</t>
   </si>
 </sst>
 </file>
@@ -1808,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -1831,7 +1836,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1839,7 +1844,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3667,7 +3672,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3688,7 +3693,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3696,12 +3701,12 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>235</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="admin@123"/>
+    <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B1" r:id="rId2" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
     <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
@@ -4059,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4126,9 +4131,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4143,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4175,11 +4180,17 @@
         <v>127153</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B1" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="B9" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4204,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4212,7 +4223,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16040" windowHeight="6080" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16040" windowHeight="6080" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="240">
   <si>
     <t>URL</t>
   </si>
@@ -801,9 +801,6 @@
   </si>
   <si>
     <t>kaustubh@tlregtech.com</t>
-  </si>
-  <si>
-    <t>snehal10.patil@tlregtech.in</t>
   </si>
   <si>
     <t>https://login.teamleaseregtech.com/</t>
@@ -1813,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -1836,7 +1833,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1844,7 +1841,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3671,8 +3668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3693,22 +3690,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="B3" s="53" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B1" r:id="rId2" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
-    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="B1" r:id="rId1" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4064,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4148,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4182,7 +4179,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4215,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4223,7 +4220,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16040" windowHeight="6080" firstSheet="2" activeTab="11"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16040" windowHeight="6080" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="240">
   <si>
     <t>URL</t>
   </si>
@@ -801,9 +801,6 @@
   </si>
   <si>
     <t>kaustubh@tlregtech.com</t>
-  </si>
-  <si>
-    <t>snehal10.patil@tlregtech.in</t>
   </si>
   <si>
     <t>https://login.teamleaseregtech.com/</t>
@@ -1813,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -1836,7 +1833,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1844,7 +1841,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3671,8 +3668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3693,22 +3690,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="B3" s="53" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B1" r:id="rId2" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
-    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="B1" r:id="rId1" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4064,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4148,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4182,7 +4179,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4215,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4223,7 +4220,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:2">
